--- a/tmp/data_siswa_append.xlsx
+++ b/tmp/data_siswa_append.xlsx
@@ -4128,14 +4128,10 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Muhammad Rizal Murtadha</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Rizal</t>
-        </is>
-      </c>
+          <t>Muhammad Rizal</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr"/>
       <c r="C72" t="n">
         <v>999999999</v>
       </c>
@@ -4144,165 +4140,47 @@
           <t>VII</t>
         </is>
       </c>
-      <c r="E72" t="n">
-        <v>99999999999999</v>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>1999-02-22</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>Laki-laki</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>Islam</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>anak</t>
-        </is>
-      </c>
-      <c r="J72" t="n">
-        <v>1</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>jl. mangga no.1</t>
-        </is>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>BT +12.2</t>
-        </is>
-      </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>LU +1.2</t>
-        </is>
-      </c>
-      <c r="N72" t="n">
-        <v>812345678</v>
-      </c>
-      <c r="O72" t="inlineStr">
-        <is>
-          <t>SD Indonesia</t>
-        </is>
-      </c>
-      <c r="P72" t="n">
-        <v>167</v>
-      </c>
-      <c r="Q72" t="n">
-        <v>50</v>
-      </c>
-      <c r="R72" t="inlineStr">
-        <is>
-          <t>ayah</t>
-        </is>
-      </c>
-      <c r="S72" t="n">
-        <v>99999999999999</v>
-      </c>
-      <c r="T72" t="inlineStr">
-        <is>
-          <t>1962-02-22</t>
-        </is>
-      </c>
-      <c r="U72" t="inlineStr">
-        <is>
-          <t>Islam</t>
-        </is>
-      </c>
-      <c r="V72" t="inlineStr">
-        <is>
-          <t>jl. mangga no.1</t>
-        </is>
-      </c>
-      <c r="W72" t="n">
-        <v>332132323123</v>
-      </c>
-      <c r="X72" t="inlineStr">
-        <is>
-          <t>Dosen</t>
-        </is>
-      </c>
-      <c r="Y72" t="inlineStr">
-        <is>
-          <t>Universitas Telkom</t>
-        </is>
-      </c>
-      <c r="Z72" t="inlineStr">
-        <is>
-          <t>&gt; 5 jt</t>
-        </is>
-      </c>
-      <c r="AA72" t="inlineStr">
-        <is>
-          <t>S3 teknik</t>
-        </is>
-      </c>
-      <c r="AB72" t="inlineStr">
-        <is>
-          <t>ibu</t>
-        </is>
-      </c>
-      <c r="AC72" t="n">
-        <v>12345678990</v>
-      </c>
-      <c r="AD72" t="inlineStr">
-        <is>
-          <t>1971-02-22</t>
-        </is>
-      </c>
-      <c r="AE72" t="inlineStr">
-        <is>
-          <t>Islam</t>
-        </is>
-      </c>
-      <c r="AF72" t="inlineStr">
-        <is>
-          <t>jl. mangga no.1</t>
-        </is>
-      </c>
-      <c r="AG72" t="n">
-        <v>812345689</v>
-      </c>
-      <c r="AH72" t="inlineStr">
-        <is>
-          <t>Dosen</t>
-        </is>
-      </c>
-      <c r="AI72" t="inlineStr">
-        <is>
-          <t>Universitas Telkom</t>
-        </is>
-      </c>
-      <c r="AJ72" t="inlineStr">
-        <is>
-          <t>S3 desain</t>
-        </is>
-      </c>
-      <c r="AK72" t="inlineStr">
-        <is>
-          <t>500 m</t>
-        </is>
-      </c>
-      <c r="AL72" t="inlineStr">
-        <is>
-          <t>500 m</t>
-        </is>
-      </c>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="inlineStr"/>
+      <c r="S72" t="inlineStr"/>
+      <c r="T72" t="inlineStr"/>
+      <c r="U72" t="inlineStr"/>
+      <c r="V72" t="inlineStr"/>
+      <c r="W72" t="inlineStr"/>
+      <c r="X72" t="inlineStr"/>
+      <c r="Y72" t="inlineStr"/>
+      <c r="Z72" t="inlineStr"/>
+      <c r="AA72" t="inlineStr"/>
+      <c r="AB72" t="inlineStr"/>
+      <c r="AC72" t="inlineStr"/>
+      <c r="AD72" t="inlineStr"/>
+      <c r="AE72" t="inlineStr"/>
+      <c r="AF72" t="inlineStr"/>
+      <c r="AG72" t="inlineStr"/>
+      <c r="AH72" t="inlineStr"/>
+      <c r="AI72" t="inlineStr"/>
+      <c r="AJ72" t="inlineStr"/>
+      <c r="AK72" t="inlineStr"/>
+      <c r="AL72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr"/>
       <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>999999999</t>
         </is>
       </c>
       <c r="D73" t="inlineStr"/>
